--- a/biology/Botanique/Lepidodendraceae/Lepidodendraceae.xlsx
+++ b/biology/Botanique/Lepidodendraceae/Lepidodendraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lepidodendraceae sont une famille fossile de plantes lycophytes de l'ordre des Lepidodendrales.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Lepidodendraceae est attribuée au botaniste autrichien Stephan Ladislaus Endlicher, qui la créée en 1836 sous le nom de Lepidodendreae, pour le genre type Lepidodendron[1].
-Selon l'IRMNG  (30 juin 2022)[2], les Lepidodendropsidaceae sont synonyme de Lepidodendraceae.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Lepidodendraceae est attribuée au botaniste autrichien Stephan Ladislaus Endlicher, qui la créée en 1836 sous le nom de Lepidodendreae, pour le genre type Lepidodendron.
+Selon l'IRMNG  (30 juin 2022), les Lepidodendropsidaceae sont synonyme de Lepidodendraceae.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'IRMNG  (30 juin 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'IRMNG  (30 juin 2022) :
 Hizemodendron R.M. Bateman &amp; W.A. DiMichele, 1991 †
 Lepidodendron Sternberg, 1820 †
 Lepidodendropsis J. Lutz, 1933 †
@@ -567,7 +583,7 @@
 Calamariopsis H. Potonié in A. Engler &amp; K. Prantl, 1902 † (incertain, non évalué)
 Calamophloios E.A.N. Arber, 1916 † (incertain, non évalué)
 Lepidophyllostrobus H. Hartung, 1938 † (incertain, non évalué)
-Selon The International Fossil Plant Names Index (IFPNI)                (30 juin 2022)[3] :
+Selon The International Fossil Plant Names Index (IFPNI)                (30 juin 2022) :
 sous-famille des Lepidodendroideae
 Lepidodendron
 sous-tribu des Lepidostrobinae
@@ -588,7 +604,7 @@
 Phialophloios
 Rhytidodendron
 Spirelepidodendrum
-Selon la Paleobiology Database                   (30 juin 2022)[4] :
+Selon la Paleobiology Database                   (30 juin 2022) :
 Aspidiopsis
 Bergeria
 Lepidodendron
